--- a/medicine/Maladies infectieuses/Épidémiologie_de_la_tuberculose/Épidémiologie_de_la_tuberculose.xlsx
+++ b/medicine/Maladies infectieuses/Épidémiologie_de_la_tuberculose/Épidémiologie_de_la_tuberculose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_tuberculose</t>
+          <t>Épidémiologie_de_la_tuberculose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre annuel de nouveaux cas de tuberculose dans le monde, incluant les cas de rechute, est d'environ 5,4 millions (2006), occasionnant environ un million de décès[1], voire près de deux millions selon Clifton Barry, directeur du programme de recherche sur la tuberculose au National Institutes of Health[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre annuel de nouveaux cas de tuberculose dans le monde, incluant les cas de rechute, est d'environ 5,4 millions (2006), occasionnant environ un million de décès, voire près de deux millions selon Clifton Barry, directeur du programme de recherche sur la tuberculose au National Institutes of Health. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_tuberculose</t>
+          <t>Épidémiologie_de_la_tuberculose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon l'Organisation mondiale de la santé (OMS) : de 5 à 10 % des sujets infectés développent la maladie ou deviennent contagieux au cours de leur existence.
-La plupart des nouveaux cas (49 %) se situent dans les zones peuplées d'Asie : Bangladesh, Pakistan, Inde, Chine et Indonésie. Il existe une augmentation dans les pays de l'Europe de l'Est (incluant la Russie)[3]. La croissance reste très forte en Afrique, avec près de 13 % contre moins de 1 % dans les pays asiatiques.
-Elle est fréquente chez les utilisateurs de drogues par voie intraveineuse et porteurs du virus de l'immunodéficience humaine (VIH), son incidence pouvant atteindre alors près de 10 %[4]. Il s'agit essentiellement d'une infection touchant l'adulte jeune, et les hommes sont près de deux fois plus atteints que les femmes. La malnutrition et les intoxications médicamenteuses sont des causes reconnues de l'augmentation du nombre de cas.
-La résistance aux médicaments anti-tuberculeux classiques reste rare (environ 4 % des nouveaux cas) mais atteint 10 % dans certains pays de l'Europe de l'Est[5]. Ce taux augmente très sensiblement en cas d'antécédent de tuberculose précédemment traité. La résistance aux médicaments anti-tuberculeux de seconde ligne reste rare mais a une très forte mortalité dans un délai court[6]. Le nombre de cette dernière forme tend cependant à augmenter (notamment assez fortement en Russie) et à s'étendre géographiquement. Il tend, au contraire, à se stabiliser dans les pays baltes et à diminuer aux États-Unis[7].
+La plupart des nouveaux cas (49 %) se situent dans les zones peuplées d'Asie : Bangladesh, Pakistan, Inde, Chine et Indonésie. Il existe une augmentation dans les pays de l'Europe de l'Est (incluant la Russie). La croissance reste très forte en Afrique, avec près de 13 % contre moins de 1 % dans les pays asiatiques.
+Elle est fréquente chez les utilisateurs de drogues par voie intraveineuse et porteurs du virus de l'immunodéficience humaine (VIH), son incidence pouvant atteindre alors près de 10 %. Il s'agit essentiellement d'une infection touchant l'adulte jeune, et les hommes sont près de deux fois plus atteints que les femmes. La malnutrition et les intoxications médicamenteuses sont des causes reconnues de l'augmentation du nombre de cas.
+La résistance aux médicaments anti-tuberculeux classiques reste rare (environ 4 % des nouveaux cas) mais atteint 10 % dans certains pays de l'Europe de l'Est. Ce taux augmente très sensiblement en cas d'antécédent de tuberculose précédemment traité. La résistance aux médicaments anti-tuberculeux de seconde ligne reste rare mais a une très forte mortalité dans un délai court. Le nombre de cette dernière forme tend cependant à augmenter (notamment assez fortement en Russie) et à s'étendre géographiquement. Il tend, au contraire, à se stabiliser dans les pays baltes et à diminuer aux États-Unis.
 La tuberculose mérite triplement son qualificatif de « maladie sociale » :
 sa fréquence dans une communauté est un bon indice du degré d'évolution sociale de celle-ci. Les facteurs principaux de diminution de la tuberculose sont les conditions de nutrition, d'habitat, d'hygiène et d'éducation sanitaire ;
 la prévention de la tuberculose nécessite, pour être efficace, un équipement médical et une organisation sociale bien développés ;
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_tuberculose</t>
+          <t>Épidémiologie_de_la_tuberculose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,11 +568,13 @@
           <t>Dans les prisons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies infectieuses, notamment le VIH/sida et la tuberculose, frappent plus particulièrement les détenus, surtout dans les pays les plus pauvres[réf. nécessaire]. Les prisons offrent le terrain idéal pour que la tuberculose se développe et se propage en raison de la surpopulation, d’une mauvaise alimentation et de services de soins inappropriés.
 La prévalence de la tuberculose en prison est beaucoup plus élevée que dans la population générale, jusqu'à 40 fois plus dans certains pays. La plupart des pays où la tuberculose représente un problème de santé publique sont des pays pauvres où les ressources et les infrastructures sont insuffisantes pour lutter efficacement contre cette maladie. Dans les prisons, les moyens sont encore plus restreints. 
-La maladie ne peut être enrayée en dehors des prisons que si l'on[Qui ?] s'y attaque également de l'intérieur. Dans une douzaine de pays, dont l'Azerbaïdjan et la Géorgie, le Comité international de la Croix-Rouge travaille avec les autorités carcérales pour lutter contre la tuberculose en prison. L’amélioration des conditions de vie est connue, un accès accru à l’air libre et à un régime alimentaire plus sain et le fait que les patients soient davantage conscients des lourds effets secondaires liés au traitement, peuvent avoir des effets réellement positifs. Le CICR recommande aussi que les autorités appliquent la stratégie mise en place par l'Organisation mondiale de la santé pour combattre la tuberculose (DOTS), qui suppose un approvisionnement régulier en médicaments et une surveillance directe du traitement[8].
+La maladie ne peut être enrayée en dehors des prisons que si l'on[Qui ?] s'y attaque également de l'intérieur. Dans une douzaine de pays, dont l'Azerbaïdjan et la Géorgie, le Comité international de la Croix-Rouge travaille avec les autorités carcérales pour lutter contre la tuberculose en prison. L’amélioration des conditions de vie est connue, un accès accru à l’air libre et à un régime alimentaire plus sain et le fait que les patients soient davantage conscients des lourds effets secondaires liés au traitement, peuvent avoir des effets réellement positifs. Le CICR recommande aussi que les autorités appliquent la stratégie mise en place par l'Organisation mondiale de la santé pour combattre la tuberculose (DOTS), qui suppose un approvisionnement régulier en médicaments et une surveillance directe du traitement.
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_tuberculose</t>
+          <t>Épidémiologie_de_la_tuberculose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au-delà d’environ 60 ans, des personnes ayant été contaminées dans leur enfance ou leur adolescence (par M. tuberculosis, ou M. bovis), peuvent dans certains cas déclarer une tuberculose évolutive[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au-delà d’environ 60 ans, des personnes ayant été contaminées dans leur enfance ou leur adolescence (par M. tuberculosis, ou M. bovis), peuvent dans certains cas déclarer une tuberculose évolutive.
 </t>
         </is>
       </c>
